--- a/outputs_HGR/o__Selenomonadales_train.xlsx
+++ b/outputs_HGR/o__Selenomonadales_train.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="f__Selenomonadaceae-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="f__Sporomusaceae-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="f__Acidaminococcaceae-b-p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="f__Veillonellaceae-b-p" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="D1" s="11" t="inlineStr">
@@ -540,483 +540,1995 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas5.fasta</t>
+          <t>label_Acidaminococcus12.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999889380600393</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.106193996069359e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999889380600393</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas2.fasta</t>
+          <t>label_Acidaminococcus14.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9997091944031767</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0002908055968232415</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9997091944031767</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas5.fasta</t>
+          <t>label_Acidaminococcus5.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9899965328450141</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0100034671549859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9899965328450141</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas9.fasta</t>
+          <t>label_Acidaminococcus9.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.99999991981745</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>8.018255005989945e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.99999991981745</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas5.fasta</t>
+          <t>label_Phascolarctobacterium10.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9968703429124419</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.003129657087558033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9968703429124419</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas2.fasta</t>
+          <t>label_Phascolarctobacterium11.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9975086117894364</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.002491388210563653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9975086117894364</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas5.fasta</t>
+          <t>label_Phascolarctobacterium14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9992743920016132</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0007256079983868367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9992743920016132</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas9.fasta</t>
+          <t>label_Phascolarctobacterium15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999722724059885</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.772759401148406e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999722724059885</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas1.fasta</t>
+          <t>label_Phascolarctobacterium22.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9959406134223693</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.004059386577630682</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9959406134223693</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas3.fasta</t>
+          <t>label_Phascolarctobacterium23.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999798463337273</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0002015366627270371</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999798463337273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas4.fasta</t>
+          <t>label_Phascolarctobacterium25.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999765071206784</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.34928793215409e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999765071206784</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas4.fasta</t>
+          <t>label_Phascolarctobacterium29.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1594964046854671</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8405035953145329</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8405035953145329</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas7.fasta</t>
+          <t>label_Phascolarctobacterium30.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999777135026289</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.228649737109517e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999777135026289</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas0.fasta</t>
+          <t>label_Phascolarctobacterium34.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.7755860537229902</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.2244139462770098</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.7755860537229902</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas0.fasta</t>
+          <t>label_Phascolarctobacterium37.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999877055253502</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.229447464983998e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999877055253502</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas10.fasta</t>
+          <t>label_Phascolarctobacterium40.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.9995259887577818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.375</v>
+        <v>0.0004740112422182498</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.9995259887577818</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas6.fasta</t>
+          <t>label_Phascolarctobacterium46.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.9582505366371832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.375</v>
+        <v>0.04174946336281682</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.9582505366371832</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas2.fasta</t>
+          <t>label_Succiniclasticum2.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9992739189334192</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0007260810665807439</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9992739189334192</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas1.fasta</t>
+          <t>label_Succiniclasticum6.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9976356808608272</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.00236431913917277</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9976356808608272</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas12.fasta</t>
+          <t>label_Acidaminococcus12.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999889380600393</v>
       </c>
       <c r="C21" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.106193996069359e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999889380600393</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas11.fasta</t>
+          <t>label_Acidaminococcus14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9997091944031767</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0002908055968232415</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9997091944031767</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas3.fasta</t>
+          <t>label_Acidaminococcus5.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9899965328450141</v>
       </c>
       <c r="C23" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0100034671549859</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9899965328450141</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas8.fasta</t>
+          <t>label_Acidaminococcus9.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.99999991981745</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>8.018255005989945e-08</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.99999991981745</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium10.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9968703429124419</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003129657087558033</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9968703429124419</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium11.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9975086117894364</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.002491388210563653</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9975086117894364</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium14.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9992743920016132</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0007256079983868367</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9992743920016132</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium15.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9999722724059885</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.772759401148406e-05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9999722724059885</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium22.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9959406134223693</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.004059386577630682</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9959406134223693</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium23.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.999798463337273</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0002015366627270371</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.999798463337273</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium25.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9999765071206784</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.34928793215409e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9999765071206784</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium29.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1594964046854671</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8405035953145329</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8405035953145329</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium30.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9999777135026289</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.228649737109517e-05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9999777135026289</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium34.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7755860537229902</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2244139462770098</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7755860537229902</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium37.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9999877055253502</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.229447464983998e-05</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9999877055253502</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium40.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9995259887577818</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0004740112422182498</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9995259887577818</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium46.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9582505366371832</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.04174946336281682</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9582505366371832</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum2.fasta</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9992739189334192</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0007260810665807439</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9992739189334192</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum6.fasta</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9976356808608272</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.00236431913917277</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9976356808608272</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus6.fasta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.999309623145569</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0006903768544310125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.999309623145569</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus7.fasta</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9999999998574889</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.425111096567272e-10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9999999998574889</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium12.fasta</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9935990241695265</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006400975830473472</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9935990241695265</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium13.fasta</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9704964253291197</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02950357467088028</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9704964253291197</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium18.fasta</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9998762370910834</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0001237629089166262</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9998762370910834</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium19.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9845497602492164</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01545023975078365</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9845497602492164</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium2.fasta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9999698071419505</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.019285804947086e-05</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9999698071419505</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium21.fasta</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9999245952760739</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.540472392613228e-05</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9999245952760739</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium26.fasta</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9998851847279009</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0001148152720991288</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9998851847279009</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium27.fasta</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9999031798588095</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.682014119047603e-05</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9999031798588095</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium3.fasta</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9999389782694132</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.102173058676309e-05</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9999389782694132</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium32.fasta</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9990105631576681</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0009894368423318566</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9990105631576681</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium39.fasta</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.99998818464721</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.181535279007781e-05</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.99998818464721</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium7.fasta</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9997137984538959</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0002862015461041521</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9997137984538959</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum0.fasta</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9998723491637453</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0001276508362546665</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9998723491637453</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum10.fasta</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9977073259520925</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.002292674047907417</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9977073259520925</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum5.fasta</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9996948799968916</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0003051200031084345</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9996948799968916</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum8.fasta</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9862849908282004</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01371500917179959</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9862849908282004</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus11.fasta</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9998821669179747</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0001178330820252354</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9998821669179747</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus13.fasta</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9994669615575066</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0005330384424933688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9994669615575066</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus3.fasta</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9982562397058921</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.001743760294107888</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9982562397058921</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus4.fasta</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9940343378851449</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.005965662114855029</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9940343378851449</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium0.fasta</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9999994105797698</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.894202302124745e-07</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9999994105797698</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium1.fasta</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9999999347051581</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.529484183937946e-08</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9999999347051581</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium36.fasta</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9993222174328881</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0006777825671119568</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9993222174328881</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium4.fasta</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9999991322079563</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.677920436878702e-07</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9999991322079563</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium44.fasta</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9999995506571111</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.49342888879076e-07</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9999995506571111</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium45.fasta</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9988021887437101</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.001197811256289927</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9988021887437101</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium5.fasta</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9999992539410093</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.460589906939257e-07</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9999992539410093</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium9.fasta</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9997221087378898</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0002778912621101968</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9997221087378898</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum1.fasta</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9452310374484629</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.05476896255153712</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9452310374484629</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum3.fasta</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9231666250111149</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.07683337498888511</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9231666250111149</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum9.fasta</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9986130636651093</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.001386936334890785</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9986130636651093</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus0.fasta</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.01278026741144078</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9872197325885592</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9872197325885592</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium16.fasta</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9999967740649504</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.225935049641455e-06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9999967740649504</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium17.fasta</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9999967959225654</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.204077434586476e-06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9999967959225654</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium20.fasta</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9999986434067496</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.356593250432696e-06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9999986434067496</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium31.fasta</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9999954850720937</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.514927906330706e-06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9999954850720937</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium38.fasta</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9985954156581992</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.001404584341800747</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9985954156581992</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium41.fasta</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9999965498301322</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.450169867853277e-06</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9999965498301322</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium43.fasta</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9999799883701227</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.00116298772716e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9999799883701227</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium8.fasta</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9999280435042727</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7.195649572727824e-05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9999280435042727</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum11.fasta</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8730564473302744</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1269435526697255</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8730564473302744</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum12.fasta</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9615843929098227</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.03841560709017729</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9615843929098227</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum4.fasta</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9999969944058433</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.005594156634673e-06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9999969944058433</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="inlineStr">
+        <is>
+          <t>label_Succiniclasticum7.fasta</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9973568907831053</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.002643109216894722</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9973568907831053</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus1.fasta</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8836200947356074</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1163799052643926</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8836200947356074</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus10.fasta</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9967116620860701</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.003288337913929948</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9967116620860701</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus2.fasta</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9862114500236107</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01378854997638932</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9862114500236107</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="inlineStr">
+        <is>
+          <t>label_Acidaminococcus8.fasta</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9995783184143112</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0004216815856887724</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9995783184143112</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium24.fasta</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9997711084947952</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0002288915052047797</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9997711084947952</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium28.fasta</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9993778873897834</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0006221126102165945</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9993778873897834</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium33.fasta</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9952513160702184</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.004748683929781508</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9952513160702184</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium35.fasta</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9999979243717336</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.075628266417824e-06</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9999979243717336</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium42.fasta</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.99931674843202</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0006832515679800461</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.99931674843202</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium47.fasta</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9576573558841655</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.04234264411583452</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9576573558841655</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="inlineStr">
+        <is>
+          <t>label_Phascolarctobacterium6.fasta</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9999125390509056</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8.746094909439523e-05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9999125390509056</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
@@ -1031,7 +2543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,12 +2559,12 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="D1" s="11" t="inlineStr">
@@ -1069,273 +2581,3297 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus7.fasta</t>
+          <t>label_Dialister16.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.00131114805432242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.375</v>
+        <v>0.9986888519456776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.9986888519456776</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus8.fasta</t>
+          <t>label_Dialister22.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.0001708983736059544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.375</v>
+        <v>0.999829101626394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.999829101626394</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus7.fasta</t>
+          <t>label_Dialister24.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6250000000000001</v>
+        <v>5.721071188391491e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375</v>
+        <v>0.9999427892881161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.9999427892881161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus8.fasta</t>
+          <t>label_Dialister3.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.1239145182509453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.375</v>
+        <v>0.8760854817490548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.8760854817490548</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>f__Selenomonadaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus0.fasta</t>
+          <t>label_Dialister5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0001911224299684378</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9998088775700316</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9998088775700316</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus10.fasta</t>
+          <t>label_Megamonas0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.945750310345829e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.999999999705425</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.999999999705425</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus9.fasta</t>
+          <t>label_Megasphaera18.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.270876405704725</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.729123594295275</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.729123594295275</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus1.fasta</t>
+          <t>label_Megasphaera23.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.0001747715632258728</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9998252284367741</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9998252284367741</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus3.fasta</t>
+          <t>label_Megasphaera29.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0002865666910719655</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.999713433308928</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.999713433308928</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus5.fasta</t>
+          <t>label_Megasphaera37.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.001778326278266351</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9982216737217336</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9982216737217336</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus2.fasta</t>
+          <t>label_Megasphaera39.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01043803093043472</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9895619690695653</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9895619690695653</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus4.fasta</t>
+          <t>label_Megasphaera9.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.0001464404153599386</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9998535595846401</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9998535595846401</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>f__Sporomusaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
+          <t>label_Pelosinus10.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0004254975467627986</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9995745024532372</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9995745024532372</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas10.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.977598660837472e-06</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999900224013392</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9999900224013392</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas12.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001060645344992062</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9989393546550079</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9989393546550079</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas2.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0001351016754099765</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.99986489832459</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.99986489832459</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas6.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.638384686919458e-05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999836161531308</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9999836161531308</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella16.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.001448831637501868</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9985511683624981</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9985511683624981</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella23.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0003847902831648486</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9996152097168352</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9996152097168352</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella24.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.001748121714050588</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9982518782859494</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9982518782859494</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella27.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.003737126605083074</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9962628733949169</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9962628733949169</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella4.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.001750447828887003</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.998249552171113</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.998249552171113</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella7.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02817813916534773</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9718218608346523</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9718218608346523</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister16.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.00131114805432242</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9986888519456776</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9986888519456776</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister22.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0001708983736059544</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.999829101626394</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.999829101626394</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister24.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.721071188391491e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9999427892881161</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9999427892881161</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister3.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1239145182509453</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8760854817490548</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8760854817490548</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister5.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0001911224299684378</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9998088775700316</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9998088775700316</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>label_Megamonas0.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.945750310345829e-10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.999999999705425</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.999999999705425</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera18.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.270876405704725</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.729123594295275</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.729123594295275</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera23.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0001747715632258728</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9998252284367741</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9998252284367741</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera29.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0002865666910719655</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.999713433308928</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.999713433308928</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera37.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.001778326278266351</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9982216737217336</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9982216737217336</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera39.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01043803093043472</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9895619690695653</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9895619690695653</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera9.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0001464404153599386</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9998535595846401</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9998535595846401</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus10.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0004254975467627986</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9995745024532372</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9995745024532372</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas10.fasta</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.977598660837472e-06</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9999900224013392</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9999900224013392</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas12.fasta</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.001060645344992062</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9989393546550079</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9989393546550079</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas2.fasta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001351016754099765</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.99986489832459</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.99986489832459</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas6.fasta</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.638384686919458e-05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9999836161531308</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9999836161531308</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella16.fasta</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.001448831637501868</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9985511683624981</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9985511683624981</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella23.fasta</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0003847902831648486</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9996152097168352</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9996152097168352</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella24.fasta</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.001748121714050588</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9982518782859494</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9982518782859494</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella27.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.003737126605083074</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9962628733949169</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9962628733949169</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella4.fasta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.001750447828887003</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.998249552171113</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.998249552171113</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella7.fasta</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02817813916534773</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9718218608346523</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9718218608346523</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister18.fasta</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3334068678731408</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6665931321268592</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6665931321268592</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister2.fasta</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.03419919925256598</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.965800800747434</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.965800800747434</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister21.fasta</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0001654670581372475</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9998345329418628</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9998345329418628</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister25.fasta</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01249999042617511</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9875000095738249</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9875000095738249</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister8.fasta</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1226018203767518</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8773981796232482</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8773981796232482</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister9.fasta</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.003569123262207374</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9964308767377926</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9964308767377926</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>label_Megamonas1.fasta</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.028207794577356e-08</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9999999497179221</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9999999497179221</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera13.fasta</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0001460260512540223</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.999853973948746</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.999853973948746</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera24.fasta</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2833789513582828</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7166210486417172</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7166210486417172</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera3.fasta</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0004427840387576376</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9995572159612424</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9995572159612424</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera36.fasta</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6.36686906267947e-05</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9999363313093732</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9999363313093732</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera42.fasta</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.001601756601350313</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9983982433986497</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9983982433986497</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus0.fasta</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1718119363905757</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8281880636094243</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8281880636094243</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus3.fasta</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.001893484028223535</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9981065159717765</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9981065159717765</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus9.fasta</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.002620797573199329</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9973792024268007</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9973792024268007</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas5.fasta</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1780853598254571</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.821914640174543</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.821914640174543</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas9.fasta</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7.764114608166395e-05</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9999223588539183</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9999223588539183</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella0.fasta</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.005246697777326448</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9947533022226736</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9947533022226736</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella10.fasta</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01563843612218008</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9843615638778199</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9843615638778199</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella12.fasta</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.004014783813474865</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9959852161865251</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9959852161865251</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella13.fasta</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.002922430446074209</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9970775695539258</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9970775695539258</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella25.fasta</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.005919500188572679</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9940804998114273</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9940804998114273</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella28.fasta</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.002449564882540001</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.99755043511746</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.99755043511746</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella34.fasta</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.002609792567811575</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9973902074321884</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9973902074321884</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister0.fasta</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.004968588196489487</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9950314118035105</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9950314118035105</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister10.fasta</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8.047069629024683e-05</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9999195293037098</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9999195293037098</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister12.fasta</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.00240638004764604</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.997593619952354</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.997593619952354</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister13.fasta</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.005568576301086092</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9944314236989139</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9944314236989139</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister19.fasta</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.008039900578432957</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.991960099421567</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.991960099421567</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister23.fasta</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.127338467343808e-05</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9999887266153266</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9999887266153266</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11" t="inlineStr">
+        <is>
+          <t>label_Megamonas3.fasta</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5.811053375381903e-06</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9999941889466246</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9999941889466246</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera11.fasta</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.470508307288565e-05</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9999852949169271</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9999852949169271</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera14.fasta</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.498014735734632e-05</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9999850198526427</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9999850198526427</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera19.fasta</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0001112519367898468</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9998887480632102</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9998887480632102</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera26.fasta</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0001037449093947984</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9998962550906052</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9998962550906052</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera32.fasta</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0001505179613889851</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.999849482038611</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.999849482038611</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera38.fasta</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002721796679123201</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9972782033208768</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9972782033208768</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera40.fasta</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0004220807185886244</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9995779192814114</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9995779192814114</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera7.fasta</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.002306052305131479</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9976939476948685</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9976939476948685</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus2.fasta</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.05729135463440693</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9427086453655931</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9427086453655931</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="inlineStr">
+        <is>
           <t>label_Pelosinus6.fasta</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>f__Sporomusaceae</t>
+      <c r="B88" t="n">
+        <v>0.9060464152021978</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.09395358479780225</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9060464152021978</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas1.fasta</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6.35906346635462e-06</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9999936409365336</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9999936409365336</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella1.fasta</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.002995148028286376</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9970048519717136</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9970048519717136</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella14.fasta</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.001607725659784287</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9983922743402157</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9983922743402157</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella15.fasta</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.001891593823961535</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9981084061760385</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9981084061760385</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella19.fasta</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.001012556918640772</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9989874430813592</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9989874430813592</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella2.fasta</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.00932045351294597</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.990679546487054</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.990679546487054</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella29.fasta</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.003246144194922085</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9967538558050779</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9967538558050779</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella5.fasta</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.000542231266669968</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.99945776873333</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.99945776873333</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella6.fasta</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0156818304394073</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9843181695605927</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9843181695605927</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella8.fasta</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.003162454635575962</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.996837545364424</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.996837545364424</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister14.fasta</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2.294592509555216e-06</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9999977054074904</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9999977054074904</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister15.fasta</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.001436560438805246</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9985634395611948</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9985634395611948</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister4.fasta</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.003607324683196245</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9963926753168038</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9963926753168038</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister7.fasta</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9.805997460365923e-06</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9999901940025396</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9999901940025396</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="inlineStr">
+        <is>
+          <t>label_Megamonas2.fasta</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4.729550084903167e-14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9999999999999527</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9999999999999527</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11" t="inlineStr">
+        <is>
+          <t>label_Megamonas4.fasta</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.926925451480656e-11</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9999999999607307</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9999999999607307</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera1.fasta</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.031898388614838e-05</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9999896810161139</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9999896810161139</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera12.fasta</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.151976292135259e-07</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9999998848023708</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9999998848023708</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera17.fasta</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.558151961957634e-07</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9999996441848038</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9999996441848038</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera20.fasta</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5.816844161898872e-08</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9999999418315584</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9999999418315584</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera21.fasta</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>9.947267132215387e-08</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9999999005273287</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9999999005273287</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera28.fasta</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0005560574996247292</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9994439425003753</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9994439425003753</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera30.fasta</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>9.829096427882433e-07</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9999990170903572</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9999990170903572</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera33.fasta</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.573950713096295e-07</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9999998426049287</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9999998426049287</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera34.fasta</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>7.328699513919901e-08</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9999999267130049</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9999999267130049</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera6.fasta</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.762067808552814e-06</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9999982379321914</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9999982379321914</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera8.fasta</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4.932813288471838e-05</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9999506718671153</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.9999506718671153</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus1.fasta</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.02867997641609232</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9713200235839077</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9713200235839077</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus4.fasta</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.002581641898069087</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9974183581019309</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9974183581019309</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas3.fasta</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0001451633311275735</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9998548366688724</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9998548366688724</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas4.fasta</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.001282317692801738</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9987176823071983</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.9987176823071983</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas8.fasta</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4.300172398907787e-05</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9999569982760109</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.9999569982760109</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella11.fasta</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0005451834889403928</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9994548165110596</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9994548165110596</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella17.fasta</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.0003192627759294187</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9996807372240706</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.9996807372240706</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella18.fasta</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.0001569849451044103</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9998430150548956</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9998430150548956</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella22.fasta</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0004145089957889869</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.999585491004211</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.999585491004211</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella31.fasta</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0006932114187609972</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.999306788581239</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.999306788581239</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella32.fasta</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.0006226547774655922</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9993773452225344</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9993773452225344</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella9.fasta</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0005190098486524963</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9994809901513475</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9994809901513475</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister1.fasta</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.01790769218115196</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.982092307818848</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.982092307818848</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister11.fasta</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.005647820126156278</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9943521798738437</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9943521798738437</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister17.fasta</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.003554017005382382</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9964459829946176</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9964459829946176</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister20.fasta</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0002739205745667661</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9997260794254332</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9997260794254332</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="inlineStr">
+        <is>
+          <t>label_Dialister6.fasta</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.01011514808095881</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9898848519190412</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.9898848519190412</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11" t="inlineStr">
+        <is>
+          <t>label_Megamonas5.fasta</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1.391018939456146e-05</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9999860898106054</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.9999860898106054</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera0.fasta</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0003374927622907808</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9996625072377092</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.9996625072377092</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera10.fasta</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0002148490282329885</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.999785150971767</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.999785150971767</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera15.fasta</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.0001706283768944106</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9998293716231056</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9998293716231056</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera16.fasta</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.0006347131172860232</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.999365286882714</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.999365286882714</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera2.fasta</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.000935614455407463</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9990643855445925</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.9990643855445925</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera22.fasta</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0004938703241699205</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9995061296758301</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.9995061296758301</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera25.fasta</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.002507000561921435</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9974929994380786</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.9974929994380786</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera27.fasta</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.001710045886680445</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9982899541133196</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9982899541133196</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera31.fasta</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.001180204980774202</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9988197950192258</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.9988197950192258</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera35.fasta</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.0005101190787938359</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.9994898809212062</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.9994898809212062</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera4.fasta</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.009136349019127854</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9908636509808721</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.9908636509808721</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera41.fasta</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.003835299920024182</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9961647000799758</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.9961647000799758</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11" t="inlineStr">
+        <is>
+          <t>label_Megasphaera5.fasta</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.0005060074284455318</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9994939925715545</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9994939925715545</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus5.fasta</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.01026625263117553</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9897337473688245</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.9897337473688245</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus7.fasta</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.002066118960294072</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9979338810397059</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.9979338810397059</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="inlineStr">
+        <is>
+          <t>label_Pelosinus8.fasta</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.001070084148085071</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9989299158519149</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.9989299158519149</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas0.fasta</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0003286464859870719</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9996713535140129</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9996713535140129</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas11.fasta</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.002439181677785562</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9975608183222144</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9975608183222144</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="inlineStr">
+        <is>
+          <t>label_Selenomonas7.fasta</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0001772035699836305</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9998227964300164</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.9998227964300164</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella20.fasta</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.000922074816650742</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9990779251833493</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.9990779251833493</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella21.fasta</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.002240453848133317</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.9977595461518667</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.9977595461518667</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella26.fasta</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.001379868796353878</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9986201312036461</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9986201312036461</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella3.fasta</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.002950032472851749</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9970499675271483</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.9970499675271483</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella30.fasta</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.001926587745853969</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.998073412254146</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.998073412254146</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11" t="inlineStr">
+        <is>
+          <t>label_Veillonella33.fasta</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.002778693083644646</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.9972213069163554</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.9972213069163554</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>

--- a/outputs_HGR/o__Selenomonadales_train.xlsx
+++ b/outputs_HGR/o__Selenomonadales_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus12.fasta</t>
+          <t>label_Acidaminococcus11.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999889380600393</v>
+        <v>0.9726765564752502</v>
       </c>
       <c r="C2" t="n">
-        <v>1.106193996069359e-05</v>
+        <v>0.02732344352474982</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999889380600393</v>
+        <v>0.9726765564752502</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -561,17 +561,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus14.fasta</t>
+          <t>label_Acidaminococcus8.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997091944031767</v>
+        <v>0.9997109999433158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002908055968232415</v>
+        <v>0.0002890000566842218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997091944031767</v>
+        <v>0.9997109999433158</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -582,17 +582,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus5.fasta</t>
+          <t>label_Phascolarctobacterium1.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9899965328450141</v>
+        <v>0.9999250622591649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0100034671549859</v>
+        <v>7.493774083513216e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9899965328450141</v>
+        <v>0.9999250622591649</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,17 +603,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus9.fasta</t>
+          <t>label_Phascolarctobacterium16.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.99999991981745</v>
+        <v>0.9992545714889483</v>
       </c>
       <c r="C5" t="n">
-        <v>8.018255005989945e-08</v>
+        <v>0.0007454285110517196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.99999991981745</v>
+        <v>0.9992545714889483</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium10.fasta</t>
+          <t>label_Phascolarctobacterium17.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9968703429124419</v>
+        <v>0.9996321380205753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003129657087558033</v>
+        <v>0.0003678619794247284</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9968703429124419</v>
+        <v>0.9996321380205753</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,17 +645,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium11.fasta</t>
+          <t>label_Phascolarctobacterium19.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9975086117894364</v>
+        <v>0.9156796684485803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002491388210563653</v>
+        <v>0.08432033155141971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9975086117894364</v>
+        <v>0.9156796684485803</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -666,17 +666,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium14.fasta</t>
+          <t>label_Phascolarctobacterium22.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992743920016132</v>
+        <v>0.9630939008501715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007256079983868367</v>
+        <v>0.0369060991498285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9992743920016132</v>
+        <v>0.9630939008501715</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,17 +687,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium15.fasta</t>
+          <t>label_Phascolarctobacterium23.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999722724059885</v>
+        <v>0.9956126146272481</v>
       </c>
       <c r="C9" t="n">
-        <v>2.772759401148406e-05</v>
+        <v>0.004387385372751839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999722724059885</v>
+        <v>0.9956126146272481</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,17 +708,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium22.fasta</t>
+          <t>label_Phascolarctobacterium26.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9959406134223693</v>
+        <v>0.9978698333357076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004059386577630682</v>
+        <v>0.002130166664292423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9959406134223693</v>
+        <v>0.9978698333357076</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium23.fasta</t>
+          <t>label_Phascolarctobacterium28.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999798463337273</v>
+        <v>0.9969816807069297</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002015366627270371</v>
+        <v>0.003018319293070333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999798463337273</v>
+        <v>0.9969816807069297</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium25.fasta</t>
+          <t>label_Phascolarctobacterium30.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999765071206784</v>
+        <v>0.9994581207358321</v>
       </c>
       <c r="C12" t="n">
-        <v>2.34928793215409e-05</v>
+        <v>0.0005418792641679283</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999765071206784</v>
+        <v>0.9994581207358321</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,38 +771,38 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium29.fasta</t>
+          <t>label_Phascolarctobacterium35.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1594964046854671</v>
+        <v>0.9999768594215376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8405035953145329</v>
+        <v>2.314057846247149e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8405035953145329</v>
+        <v>0.9999768594215376</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium30.fasta</t>
+          <t>label_Phascolarctobacterium44.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999777135026289</v>
+        <v>0.9996371486191765</v>
       </c>
       <c r="C14" t="n">
-        <v>2.228649737109517e-05</v>
+        <v>0.0003628513808234942</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999777135026289</v>
+        <v>0.9996371486191765</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium34.fasta</t>
+          <t>label_Succiniclasticum0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7755860537229902</v>
+        <v>0.99455097649493</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2244139462770098</v>
+        <v>0.00544902350507002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7755860537229902</v>
+        <v>0.99455097649493</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium37.fasta</t>
+          <t>label_Succiniclasticum2.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999877055253502</v>
+        <v>0.9879217629125872</v>
       </c>
       <c r="C16" t="n">
-        <v>1.229447464983998e-05</v>
+        <v>0.01207823708741285</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999877055253502</v>
+        <v>0.9879217629125872</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,17 +855,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium40.fasta</t>
+          <t>label_Succiniclasticum6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9995259887577818</v>
+        <v>0.9891083657306499</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004740112422182498</v>
+        <v>0.01089163426935017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9995259887577818</v>
+        <v>0.9891083657306499</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium46.fasta</t>
+          <t>label_Acidaminococcus11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9582505366371832</v>
+        <v>0.9726765564752502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04174946336281682</v>
+        <v>0.02732344352474982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9582505366371832</v>
+        <v>0.9726765564752502</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -897,17 +897,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum2.fasta</t>
+          <t>label_Acidaminococcus8.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9992739189334192</v>
+        <v>0.9997109999433158</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0007260810665807439</v>
+        <v>0.0002890000566842218</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9992739189334192</v>
+        <v>0.9997109999433158</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,17 +918,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum6.fasta</t>
+          <t>label_Phascolarctobacterium1.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9976356808608272</v>
+        <v>0.9999250622591649</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00236431913917277</v>
+        <v>7.493774083513216e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9976356808608272</v>
+        <v>0.9999250622591649</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,17 +939,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus12.fasta</t>
+          <t>label_Phascolarctobacterium16.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999889380600393</v>
+        <v>0.9992545714889483</v>
       </c>
       <c r="C21" t="n">
-        <v>1.106193996069359e-05</v>
+        <v>0.0007454285110517196</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999889380600393</v>
+        <v>0.9992545714889483</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus14.fasta</t>
+          <t>label_Phascolarctobacterium17.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9997091944031767</v>
+        <v>0.9996321380205753</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002908055968232415</v>
+        <v>0.0003678619794247284</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997091944031767</v>
+        <v>0.9996321380205753</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -981,17 +981,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus5.fasta</t>
+          <t>label_Phascolarctobacterium19.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9899965328450141</v>
+        <v>0.9156796684485803</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0100034671549859</v>
+        <v>0.08432033155141971</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9899965328450141</v>
+        <v>0.9156796684485803</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1002,17 +1002,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus9.fasta</t>
+          <t>label_Phascolarctobacterium22.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.99999991981745</v>
+        <v>0.9630939008501715</v>
       </c>
       <c r="C24" t="n">
-        <v>8.018255005989945e-08</v>
+        <v>0.0369060991498285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99999991981745</v>
+        <v>0.9630939008501715</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1023,17 +1023,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium10.fasta</t>
+          <t>label_Phascolarctobacterium23.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9968703429124419</v>
+        <v>0.9956126146272481</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003129657087558033</v>
+        <v>0.004387385372751839</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9968703429124419</v>
+        <v>0.9956126146272481</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1044,17 +1044,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium11.fasta</t>
+          <t>label_Phascolarctobacterium26.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9975086117894364</v>
+        <v>0.9978698333357076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002491388210563653</v>
+        <v>0.002130166664292423</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9975086117894364</v>
+        <v>0.9978698333357076</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1065,17 +1065,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium14.fasta</t>
+          <t>label_Phascolarctobacterium28.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9992743920016132</v>
+        <v>0.9969816807069297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007256079983868367</v>
+        <v>0.003018319293070333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9992743920016132</v>
+        <v>0.9969816807069297</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1086,17 +1086,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium15.fasta</t>
+          <t>label_Phascolarctobacterium30.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999722724059885</v>
+        <v>0.9994581207358321</v>
       </c>
       <c r="C28" t="n">
-        <v>2.772759401148406e-05</v>
+        <v>0.0005418792641679283</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999722724059885</v>
+        <v>0.9994581207358321</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1107,17 +1107,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium22.fasta</t>
+          <t>label_Phascolarctobacterium35.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9959406134223693</v>
+        <v>0.9999768594215376</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004059386577630682</v>
+        <v>2.314057846247149e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9959406134223693</v>
+        <v>0.9999768594215376</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1128,17 +1128,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium23.fasta</t>
+          <t>label_Phascolarctobacterium44.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.999798463337273</v>
+        <v>0.9996371486191765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002015366627270371</v>
+        <v>0.0003628513808234942</v>
       </c>
       <c r="D30" t="n">
-        <v>0.999798463337273</v>
+        <v>0.9996371486191765</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1149,17 +1149,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium25.fasta</t>
+          <t>label_Succiniclasticum0.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9999765071206784</v>
+        <v>0.99455097649493</v>
       </c>
       <c r="C31" t="n">
-        <v>2.34928793215409e-05</v>
+        <v>0.00544902350507002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999765071206784</v>
+        <v>0.99455097649493</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1170,38 +1170,38 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium29.fasta</t>
+          <t>label_Succiniclasticum2.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1594964046854671</v>
+        <v>0.9879217629125872</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8405035953145329</v>
+        <v>0.01207823708741285</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8405035953145329</v>
+        <v>0.9879217629125872</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium30.fasta</t>
+          <t>label_Succiniclasticum6.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999777135026289</v>
+        <v>0.9891083657306499</v>
       </c>
       <c r="C33" t="n">
-        <v>2.228649737109517e-05</v>
+        <v>0.01089163426935017</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999777135026289</v>
+        <v>0.9891083657306499</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1212,17 +1212,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium34.fasta</t>
+          <t>label_Acidaminococcus3.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7755860537229902</v>
+        <v>0.9894205761385311</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2244139462770098</v>
+        <v>0.0105794238614689</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7755860537229902</v>
+        <v>0.9894205761385311</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1233,17 +1233,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium37.fasta</t>
+          <t>label_Acidaminococcus4.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999877055253502</v>
+        <v>0.9769224791576859</v>
       </c>
       <c r="C35" t="n">
-        <v>1.229447464983998e-05</v>
+        <v>0.02307752084231404</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999877055253502</v>
+        <v>0.9769224791576859</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1254,17 +1254,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium40.fasta</t>
+          <t>label_Acidaminococcus9.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9995259887577818</v>
+        <v>0.9999958115896567</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0004740112422182498</v>
+        <v>4.188410343299964e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9995259887577818</v>
+        <v>0.9999958115896567</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium46.fasta</t>
+          <t>label_Phascolarctobacterium0.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9582505366371832</v>
+        <v>0.9999434694846958</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04174946336281682</v>
+        <v>5.653051530421032e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9582505366371832</v>
+        <v>0.9999434694846958</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1296,17 +1296,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum2.fasta</t>
+          <t>label_Phascolarctobacterium12.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9992739189334192</v>
+        <v>0.991431817691957</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0007260810665807439</v>
+        <v>0.008568182308043001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9992739189334192</v>
+        <v>0.991431817691957</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1317,17 +1317,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum6.fasta</t>
+          <t>label_Phascolarctobacterium13.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9976356808608272</v>
+        <v>0.9705593935327249</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00236431913917277</v>
+        <v>0.02944060646727509</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9976356808608272</v>
+        <v>0.9705593935327249</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1338,17 +1338,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus6.fasta</t>
+          <t>label_Phascolarctobacterium15.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.999309623145569</v>
+        <v>0.9998956048626934</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0006903768544310125</v>
+        <v>0.0001043951373066969</v>
       </c>
       <c r="D40" t="n">
-        <v>0.999309623145569</v>
+        <v>0.9998956048626934</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1359,17 +1359,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus7.fasta</t>
+          <t>label_Phascolarctobacterium2.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999999998574889</v>
+        <v>0.9998945003256647</v>
       </c>
       <c r="C41" t="n">
-        <v>1.425111096567272e-10</v>
+        <v>0.000105499674335262</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999999998574889</v>
+        <v>0.9998945003256647</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1380,17 +1380,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium12.fasta</t>
+          <t>label_Phascolarctobacterium20.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9935990241695265</v>
+        <v>0.999937730008585</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006400975830473472</v>
+        <v>6.226999141505802e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9935990241695265</v>
+        <v>0.999937730008585</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1401,17 +1401,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium13.fasta</t>
+          <t>label_Phascolarctobacterium39.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9704964253291197</v>
+        <v>0.9998809374490293</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02950357467088028</v>
+        <v>0.000119062550970724</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9704964253291197</v>
+        <v>0.9998809374490293</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1422,17 +1422,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium18.fasta</t>
+          <t>label_Phascolarctobacterium41.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9998762370910834</v>
+        <v>0.9999124091199436</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001237629089166262</v>
+        <v>8.759088005643402e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9998762370910834</v>
+        <v>0.9999124091199436</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1443,17 +1443,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium19.fasta</t>
+          <t>label_Phascolarctobacterium46.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9845497602492164</v>
+        <v>0.9588267504201304</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01545023975078365</v>
+        <v>0.04117324957986954</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9845497602492164</v>
+        <v>0.9588267504201304</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1464,17 +1464,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium2.fasta</t>
+          <t>label_Phascolarctobacterium5.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999698071419505</v>
+        <v>0.9999668461473672</v>
       </c>
       <c r="C46" t="n">
-        <v>3.019285804947086e-05</v>
+        <v>3.31538526327626e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999698071419505</v>
+        <v>0.9999668461473672</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium21.fasta</t>
+          <t>label_Succiniclasticum1.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999245952760739</v>
+        <v>0.9808244642968157</v>
       </c>
       <c r="C47" t="n">
-        <v>7.540472392613228e-05</v>
+        <v>0.01917553570318426</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999245952760739</v>
+        <v>0.9808244642968157</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1506,17 +1506,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium26.fasta</t>
+          <t>label_Succiniclasticum11.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9998851847279009</v>
+        <v>0.9237842630938093</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0001148152720991288</v>
+        <v>0.07621573690619066</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9998851847279009</v>
+        <v>0.9237842630938093</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1527,17 +1527,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium27.fasta</t>
+          <t>label_Succiniclasticum12.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9999031798588095</v>
+        <v>0.9393301504499542</v>
       </c>
       <c r="C49" t="n">
-        <v>9.682014119047603e-05</v>
+        <v>0.0606698495500458</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999031798588095</v>
+        <v>0.9393301504499542</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium3.fasta</t>
+          <t>label_Succiniclasticum4.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9999389782694132</v>
+        <v>0.9998494935463171</v>
       </c>
       <c r="C50" t="n">
-        <v>6.102173058676309e-05</v>
+        <v>0.0001505064536828915</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9999389782694132</v>
+        <v>0.9998494935463171</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1569,17 +1569,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium32.fasta</t>
+          <t>label_Succiniclasticum8.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9990105631576681</v>
+        <v>0.9796108524444701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0009894368423318566</v>
+        <v>0.02038914755552995</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990105631576681</v>
+        <v>0.9796108524444701</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1590,17 +1590,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium39.fasta</t>
+          <t>label_Succiniclasticum9.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.99998818464721</v>
+        <v>0.9699043055299018</v>
       </c>
       <c r="C52" t="n">
-        <v>1.181535279007781e-05</v>
+        <v>0.03009569447009824</v>
       </c>
       <c r="D52" t="n">
-        <v>0.99998818464721</v>
+        <v>0.9699043055299018</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1611,17 +1611,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium7.fasta</t>
+          <t>label_Acidaminococcus10.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9997137984538959</v>
+        <v>0.9999979584484359</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0002862015461041521</v>
+        <v>2.04155156414815e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9997137984538959</v>
+        <v>0.9999979584484359</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1632,17 +1632,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum0.fasta</t>
+          <t>label_Acidaminococcus12.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9998723491637453</v>
+        <v>0.9999984955452202</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0001276508362546665</v>
+        <v>1.504454779808408e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9998723491637453</v>
+        <v>0.9999984955452202</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1653,17 +1653,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum10.fasta</t>
+          <t>label_Acidaminococcus14.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9977073259520925</v>
+        <v>0.9997750082402398</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002292674047907417</v>
+        <v>0.000224991759760219</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9977073259520925</v>
+        <v>0.9997750082402398</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1674,17 +1674,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum5.fasta</t>
+          <t>label_Acidaminococcus2.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9996948799968916</v>
+        <v>0.9994571096201847</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0003051200031084345</v>
+        <v>0.0005428903798153037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9996948799968916</v>
+        <v>0.9994571096201847</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1695,17 +1695,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum8.fasta</t>
+          <t>label_Acidaminococcus6.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9862849908282004</v>
+        <v>0.9999442675401197</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01371500917179959</v>
+        <v>5.573245988030611e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9862849908282004</v>
+        <v>0.9999442675401197</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1716,17 +1716,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus11.fasta</t>
+          <t>label_Acidaminococcus7.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9998821669179747</v>
+        <v>0.9999999999991545</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0001178330820252354</v>
+        <v>8.455576825508444e-13</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9998821669179747</v>
+        <v>0.9999999999991545</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus13.fasta</t>
+          <t>label_Phascolarctobacterium27.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9994669615575066</v>
+        <v>0.9999969925969766</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0005330384424933688</v>
+        <v>3.007403023416694e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9994669615575066</v>
+        <v>0.9999969925969766</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1758,17 +1758,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus3.fasta</t>
+          <t>label_Phascolarctobacterium3.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9982562397058921</v>
+        <v>0.9999993940653218</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001743760294107888</v>
+        <v>6.059346782154036e-07</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9982562397058921</v>
+        <v>0.9999993940653218</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1779,17 +1779,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus4.fasta</t>
+          <t>label_Phascolarctobacterium33.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9940343378851449</v>
+        <v>0.9999094122481181</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005965662114855029</v>
+        <v>9.058775188188538e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9940343378851449</v>
+        <v>0.9999094122481181</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1800,17 +1800,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium0.fasta</t>
+          <t>label_Phascolarctobacterium34.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9999994105797698</v>
+        <v>0.8912958619483534</v>
       </c>
       <c r="C62" t="n">
-        <v>5.894202302124745e-07</v>
+        <v>0.1087041380516465</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999994105797698</v>
+        <v>0.8912958619483534</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium1.fasta</t>
+          <t>label_Phascolarctobacterium37.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999999347051581</v>
+        <v>0.9999997004604693</v>
       </c>
       <c r="C63" t="n">
-        <v>6.529484183937946e-08</v>
+        <v>2.995395307513036e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999999347051581</v>
+        <v>0.9999997004604693</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1842,17 +1842,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium36.fasta</t>
+          <t>label_Phascolarctobacterium40.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9993222174328881</v>
+        <v>0.9999645073163848</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0006777825671119568</v>
+        <v>3.549268361521999e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9993222174328881</v>
+        <v>0.9999645073163848</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1863,17 +1863,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium4.fasta</t>
+          <t>label_Phascolarctobacterium7.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9999991322079563</v>
+        <v>0.9999910876136929</v>
       </c>
       <c r="C65" t="n">
-        <v>8.677920436878702e-07</v>
+        <v>8.912386307032099e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999991322079563</v>
+        <v>0.9999910876136929</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1884,17 +1884,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium44.fasta</t>
+          <t>label_Succiniclasticum10.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999995506571111</v>
+        <v>0.9997888616805035</v>
       </c>
       <c r="C66" t="n">
-        <v>4.49342888879076e-07</v>
+        <v>0.0002111383194964983</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999995506571111</v>
+        <v>0.9997888616805035</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1905,17 +1905,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium45.fasta</t>
+          <t>label_Succiniclasticum3.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9988021887437101</v>
+        <v>0.9970764440784354</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001197811256289927</v>
+        <v>0.002923555921564536</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9988021887437101</v>
+        <v>0.9970764440784354</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1926,38 +1926,38 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium5.fasta</t>
+          <t>label_Acidaminococcus0.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999992539410093</v>
+        <v>0.001264624789105606</v>
       </c>
       <c r="C68" t="n">
-        <v>7.460589906939257e-07</v>
+        <v>0.9987353752108944</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999992539410093</v>
+        <v>0.9987353752108944</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>f__Acidaminococcaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium9.fasta</t>
+          <t>label_Phascolarctobacterium10.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9997221087378898</v>
+        <v>0.9999590355274017</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002778912621101968</v>
+        <v>4.096447259826945e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9997221087378898</v>
+        <v>0.9999590355274017</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1968,17 +1968,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum1.fasta</t>
+          <t>label_Phascolarctobacterium11.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9452310374484629</v>
+        <v>0.9999828955843584</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05476896255153712</v>
+        <v>1.710441564165271e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9452310374484629</v>
+        <v>0.9999828955843584</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1989,17 +1989,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum3.fasta</t>
+          <t>label_Phascolarctobacterium14.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9231666250111149</v>
+        <v>0.9999972406442992</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07683337498888511</v>
+        <v>2.759355700787608e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9231666250111149</v>
+        <v>0.9999972406442992</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2010,17 +2010,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum9.fasta</t>
+          <t>label_Phascolarctobacterium24.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9986130636651093</v>
+        <v>0.9999999984253217</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001386936334890785</v>
+        <v>1.574678228313261e-09</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9986130636651093</v>
+        <v>0.9999999984253217</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2031,17 +2031,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus0.fasta</t>
+          <t>label_Phascolarctobacterium29.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01278026741144078</v>
+        <v>0.0366956877024317</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9872197325885592</v>
+        <v>0.9633043122975683</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9872197325885592</v>
+        <v>0.9633043122975683</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2052,17 +2052,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium16.fasta</t>
+          <t>label_Phascolarctobacterium32.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9999967740649504</v>
+        <v>0.9999979889811781</v>
       </c>
       <c r="C74" t="n">
-        <v>3.225935049641455e-06</v>
+        <v>2.011018821931475e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999967740649504</v>
+        <v>0.9999979889811781</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2073,17 +2073,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium17.fasta</t>
+          <t>label_Phascolarctobacterium4.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999967959225654</v>
+        <v>0.9999999999892851</v>
       </c>
       <c r="C75" t="n">
-        <v>3.204077434586476e-06</v>
+        <v>1.0714856977036e-11</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999967959225654</v>
+        <v>0.9999999999892851</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2094,17 +2094,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium20.fasta</t>
+          <t>label_Phascolarctobacterium42.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999986434067496</v>
+        <v>0.9999999989322145</v>
       </c>
       <c r="C76" t="n">
-        <v>1.356593250432696e-06</v>
+        <v>1.067785473486224e-09</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999986434067496</v>
+        <v>0.9999999989322145</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2115,17 +2115,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium31.fasta</t>
+          <t>label_Phascolarctobacterium43.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9999954850720937</v>
+        <v>0.9999999972910594</v>
       </c>
       <c r="C77" t="n">
-        <v>4.514927906330706e-06</v>
+        <v>2.708940584051989e-09</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999954850720937</v>
+        <v>0.9999999972910594</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2136,17 +2136,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium38.fasta</t>
+          <t>label_Phascolarctobacterium45.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9985954156581992</v>
+        <v>0.9999761310645783</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001404584341800747</v>
+        <v>2.386893542172956e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9985954156581992</v>
+        <v>0.9999761310645783</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2157,17 +2157,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium41.fasta</t>
+          <t>label_Phascolarctobacterium47.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9999965498301322</v>
+        <v>0.9997983769059329</v>
       </c>
       <c r="C79" t="n">
-        <v>3.450169867853277e-06</v>
+        <v>0.0002016230940671077</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999965498301322</v>
+        <v>0.9997983769059329</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2178,17 +2178,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium43.fasta</t>
+          <t>label_Phascolarctobacterium8.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9999799883701227</v>
+        <v>0.9999989707191481</v>
       </c>
       <c r="C80" t="n">
-        <v>2.00116298772716e-05</v>
+        <v>1.029280851857115e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999799883701227</v>
+        <v>0.9999989707191481</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2199,17 +2199,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium8.fasta</t>
+          <t>label_Phascolarctobacterium9.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9999280435042727</v>
+        <v>0.9999453460903172</v>
       </c>
       <c r="C81" t="n">
-        <v>7.195649572727824e-05</v>
+        <v>5.465390968281925e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9999280435042727</v>
+        <v>0.9999453460903172</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2220,17 +2220,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum11.fasta</t>
+          <t>label_Succiniclasticum5.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8730564473302744</v>
+        <v>0.9999992995816718</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1269435526697255</v>
+        <v>7.00418328269631e-07</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8730564473302744</v>
+        <v>0.9999992995816718</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2241,17 +2241,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum12.fasta</t>
+          <t>label_Acidaminococcus1.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9615843929098227</v>
+        <v>0.7049094111313392</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03841560709017729</v>
+        <v>0.2950905888686608</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9615843929098227</v>
+        <v>0.7049094111313392</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2262,17 +2262,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum4.fasta</t>
+          <t>label_Acidaminococcus13.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999969944058433</v>
+        <v>0.9301014978232693</v>
       </c>
       <c r="C84" t="n">
-        <v>3.005594156634673e-06</v>
+        <v>0.0698985021767307</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999969944058433</v>
+        <v>0.9301014978232693</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2283,17 +2283,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Succiniclasticum7.fasta</t>
+          <t>label_Acidaminococcus5.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9973568907831053</v>
+        <v>0.937458664499524</v>
       </c>
       <c r="C85" t="n">
-        <v>0.002643109216894722</v>
+        <v>0.06254133550047603</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9973568907831053</v>
+        <v>0.937458664499524</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2304,17 +2304,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus1.fasta</t>
+          <t>label_Phascolarctobacterium18.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8836200947356074</v>
+        <v>0.9980820211562346</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1163799052643926</v>
+        <v>0.001917978843765432</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8836200947356074</v>
+        <v>0.9980820211562346</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2325,17 +2325,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus10.fasta</t>
+          <t>label_Phascolarctobacterium21.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9967116620860701</v>
+        <v>0.999819982396067</v>
       </c>
       <c r="C87" t="n">
-        <v>0.003288337913929948</v>
+        <v>0.0001800176039329937</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9967116620860701</v>
+        <v>0.999819982396067</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2346,17 +2346,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus2.fasta</t>
+          <t>label_Phascolarctobacterium25.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9862114500236107</v>
+        <v>0.999748187008011</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01378854997638932</v>
+        <v>0.0002518129919889549</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9862114500236107</v>
+        <v>0.999748187008011</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Acidaminococcus8.fasta</t>
+          <t>label_Phascolarctobacterium31.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9995783184143112</v>
+        <v>0.9994040628889177</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0004216815856887724</v>
+        <v>0.0005959371110823547</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9995783184143112</v>
+        <v>0.9994040628889177</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2388,17 +2388,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium24.fasta</t>
+          <t>label_Phascolarctobacterium36.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9997711084947952</v>
+        <v>0.9682156699920789</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002288915052047797</v>
+        <v>0.03178433000792117</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9997711084947952</v>
+        <v>0.9682156699920789</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2409,17 +2409,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium28.fasta</t>
+          <t>label_Phascolarctobacterium38.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9993778873897834</v>
+        <v>0.9759231692963127</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0006221126102165945</v>
+        <v>0.0240768307036873</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9993778873897834</v>
+        <v>0.9759231692963127</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2430,17 +2430,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium33.fasta</t>
+          <t>label_Phascolarctobacterium6.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9952513160702184</v>
+        <v>0.9996697949127515</v>
       </c>
       <c r="C92" t="n">
-        <v>0.004748683929781508</v>
+        <v>0.0003302050872484673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9952513160702184</v>
+        <v>0.9996697949127515</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2451,82 +2451,19 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_Phascolarctobacterium35.fasta</t>
+          <t>label_Succiniclasticum7.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999979243717336</v>
+        <v>0.9945896944119844</v>
       </c>
       <c r="C93" t="n">
-        <v>2.075628266417824e-06</v>
+        <v>0.00541030558801561</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999979243717336</v>
+        <v>0.9945896944119844</v>
       </c>
       <c r="E93" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_Phascolarctobacterium42.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.99931674843202</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.0006832515679800461</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.99931674843202</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_Phascolarctobacterium47.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.9576573558841655</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.04234264411583452</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.9576573558841655</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_Phascolarctobacterium6.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.9999125390509056</v>
-      </c>
-      <c r="C96" t="n">
-        <v>8.746094909439523e-05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.9999125390509056</v>
-      </c>
-      <c r="E96" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2543,7 +2480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,17 +2518,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister16.fasta</t>
+          <t>label_Dialister5.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00131114805432242</v>
+        <v>0.00163939064031271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9986888519456776</v>
+        <v>0.9983606093596873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9986888519456776</v>
+        <v>0.9983606093596873</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2602,17 +2539,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister22.fasta</t>
+          <t>label_Megasphaera11.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001708983736059544</v>
+        <v>0.0002572428296179208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999829101626394</v>
+        <v>0.9997427571703821</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999829101626394</v>
+        <v>0.9997427571703821</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2623,17 +2560,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister24.fasta</t>
+          <t>label_Megasphaera20.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.721071188391491e-05</v>
+        <v>0.0003080975699921717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999427892881161</v>
+        <v>0.9996919024300078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999427892881161</v>
+        <v>0.9996919024300078</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2644,17 +2581,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister3.fasta</t>
+          <t>label_Megasphaera3.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1239145182509453</v>
+        <v>0.001421369036723963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8760854817490548</v>
+        <v>0.998578630963276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8760854817490548</v>
+        <v>0.998578630963276</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2665,17 +2602,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister5.fasta</t>
+          <t>label_Megasphaera32.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001911224299684378</v>
+        <v>0.0007471552587082764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9998088775700316</v>
+        <v>0.9992528447412917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998088775700316</v>
+        <v>0.9992528447412917</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2686,17 +2623,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas0.fasta</t>
+          <t>label_Megasphaera42.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.945750310345829e-10</v>
+        <v>0.002193866964030455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999999999705425</v>
+        <v>0.9978061330359695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999999999705425</v>
+        <v>0.9978061330359695</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2707,17 +2644,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera18.fasta</t>
+          <t>label_Megasphaera8.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.270876405704725</v>
+        <v>0.0162545676111514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.729123594295275</v>
+        <v>0.9837454323888486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.729123594295275</v>
+        <v>0.9837454323888486</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2728,17 +2665,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera23.fasta</t>
+          <t>label_Pelosinus4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001747715632258728</v>
+        <v>0.01575917506672464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9998252284367741</v>
+        <v>0.9842408249332754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998252284367741</v>
+        <v>0.9842408249332754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2749,17 +2686,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera29.fasta</t>
+          <t>label_Selenomonas4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002865666910719655</v>
+        <v>0.05988684180974713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999713433308928</v>
+        <v>0.940113158190253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999713433308928</v>
+        <v>0.940113158190253</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2770,17 +2707,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera37.fasta</t>
+          <t>label_Veillonella18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001778326278266351</v>
+        <v>0.007084453178872852</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982216737217336</v>
+        <v>0.9929155468211271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9982216737217336</v>
+        <v>0.9929155468211271</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2791,17 +2728,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera39.fasta</t>
+          <t>label_Veillonella19.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01043803093043472</v>
+        <v>0.01326748543747547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9895619690695653</v>
+        <v>0.9867325145625245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9895619690695653</v>
+        <v>0.9867325145625245</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2812,17 +2749,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera9.fasta</t>
+          <t>label_Veillonella20.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001464404153599386</v>
+        <v>0.006965043717339747</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9998535595846401</v>
+        <v>0.9930349562826603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998535595846401</v>
+        <v>0.9930349562826603</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2833,17 +2770,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus10.fasta</t>
+          <t>label_Veillonella32.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004254975467627986</v>
+        <v>0.006922570196374545</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9995745024532372</v>
+        <v>0.9930774298036255</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9995745024532372</v>
+        <v>0.9930774298036255</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2854,17 +2791,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas10.fasta</t>
+          <t>label_Veillonella5.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.977598660837472e-06</v>
+        <v>0.004943710047222272</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999900224013392</v>
+        <v>0.9950562899527777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999900224013392</v>
+        <v>0.9950562899527777</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2875,17 +2812,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas12.fasta</t>
+          <t>label_Dialister5.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001060645344992062</v>
+        <v>0.00163939064031271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989393546550079</v>
+        <v>0.9983606093596873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9989393546550079</v>
+        <v>0.9983606093596873</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2896,17 +2833,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas2.fasta</t>
+          <t>label_Megasphaera11.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0001351016754099765</v>
+        <v>0.0002572428296179208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.99986489832459</v>
+        <v>0.9997427571703821</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99986489832459</v>
+        <v>0.9997427571703821</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2917,17 +2854,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas6.fasta</t>
+          <t>label_Megasphaera20.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.638384686919458e-05</v>
+        <v>0.0003080975699921717</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999836161531308</v>
+        <v>0.9996919024300078</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999836161531308</v>
+        <v>0.9996919024300078</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2938,17 +2875,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella16.fasta</t>
+          <t>label_Megasphaera3.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001448831637501868</v>
+        <v>0.001421369036723963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9985511683624981</v>
+        <v>0.998578630963276</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9985511683624981</v>
+        <v>0.998578630963276</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2959,17 +2896,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella23.fasta</t>
+          <t>label_Megasphaera32.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0003847902831648486</v>
+        <v>0.0007471552587082764</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996152097168352</v>
+        <v>0.9992528447412917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996152097168352</v>
+        <v>0.9992528447412917</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2980,17 +2917,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella24.fasta</t>
+          <t>label_Megasphaera42.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001748121714050588</v>
+        <v>0.002193866964030455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9982518782859494</v>
+        <v>0.9978061330359695</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9982518782859494</v>
+        <v>0.9978061330359695</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3001,17 +2938,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella27.fasta</t>
+          <t>label_Megasphaera8.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.003737126605083074</v>
+        <v>0.0162545676111514</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9962628733949169</v>
+        <v>0.9837454323888486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9962628733949169</v>
+        <v>0.9837454323888486</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3022,17 +2959,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella4.fasta</t>
+          <t>label_Pelosinus4.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001750447828887003</v>
+        <v>0.01575917506672464</v>
       </c>
       <c r="C23" t="n">
-        <v>0.998249552171113</v>
+        <v>0.9842408249332754</v>
       </c>
       <c r="D23" t="n">
-        <v>0.998249552171113</v>
+        <v>0.9842408249332754</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3043,17 +2980,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella7.fasta</t>
+          <t>label_Selenomonas4.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02817813916534773</v>
+        <v>0.05988684180974713</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9718218608346523</v>
+        <v>0.940113158190253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9718218608346523</v>
+        <v>0.940113158190253</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3064,17 +3001,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister16.fasta</t>
+          <t>label_Veillonella18.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00131114805432242</v>
+        <v>0.007084453178872852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9986888519456776</v>
+        <v>0.9929155468211271</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9986888519456776</v>
+        <v>0.9929155468211271</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3085,17 +3022,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister22.fasta</t>
+          <t>label_Veillonella19.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001708983736059544</v>
+        <v>0.01326748543747547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999829101626394</v>
+        <v>0.9867325145625245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999829101626394</v>
+        <v>0.9867325145625245</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3106,17 +3043,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister24.fasta</t>
+          <t>label_Veillonella20.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.721071188391491e-05</v>
+        <v>0.006965043717339747</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9999427892881161</v>
+        <v>0.9930349562826603</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999427892881161</v>
+        <v>0.9930349562826603</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3127,17 +3064,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister3.fasta</t>
+          <t>label_Veillonella32.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1239145182509453</v>
+        <v>0.006922570196374545</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8760854817490548</v>
+        <v>0.9930774298036255</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8760854817490548</v>
+        <v>0.9930774298036255</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3148,17 +3085,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister5.fasta</t>
+          <t>label_Veillonella5.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001911224299684378</v>
+        <v>0.004943710047222272</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9998088775700316</v>
+        <v>0.9950562899527777</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9998088775700316</v>
+        <v>0.9950562899527777</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3169,17 +3106,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas0.fasta</t>
+          <t>label_Megamonas1.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.945750310345829e-10</v>
+        <v>2.904945128889835e-08</v>
       </c>
       <c r="C30" t="n">
-        <v>0.999999999705425</v>
+        <v>0.9999999709505487</v>
       </c>
       <c r="D30" t="n">
-        <v>0.999999999705425</v>
+        <v>0.9999999709505487</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3190,17 +3127,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera18.fasta</t>
+          <t>label_Megasphaera2.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.270876405704725</v>
+        <v>0.0006327036458981805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.729123594295275</v>
+        <v>0.9993672963541018</v>
       </c>
       <c r="D31" t="n">
-        <v>0.729123594295275</v>
+        <v>0.9993672963541018</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3211,17 +3148,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera23.fasta</t>
+          <t>label_Megasphaera26.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0001747715632258728</v>
+        <v>0.0001287233625033579</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9998252284367741</v>
+        <v>0.9998712766374966</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9998252284367741</v>
+        <v>0.9998712766374966</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3232,17 +3169,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera29.fasta</t>
+          <t>label_Megasphaera30.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0002865666910719655</v>
+        <v>0.0002181162789934854</v>
       </c>
       <c r="C33" t="n">
-        <v>0.999713433308928</v>
+        <v>0.9997818837210065</v>
       </c>
       <c r="D33" t="n">
-        <v>0.999713433308928</v>
+        <v>0.9997818837210065</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3253,17 +3190,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera37.fasta</t>
+          <t>label_Megasphaera36.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001778326278266351</v>
+        <v>3.387812623856234e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9982216737217336</v>
+        <v>0.9999661218737614</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9982216737217336</v>
+        <v>0.9999661218737614</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3274,17 +3211,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera39.fasta</t>
+          <t>label_Pelosinus3.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01043803093043472</v>
+        <v>0.001537452996080435</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9895619690695653</v>
+        <v>0.9984625470039196</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9895619690695653</v>
+        <v>0.9984625470039196</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3295,17 +3232,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera9.fasta</t>
+          <t>label_Pelosinus5.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0001464404153599386</v>
+        <v>0.01119248374062598</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9998535595846401</v>
+        <v>0.988807516259374</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9998535595846401</v>
+        <v>0.988807516259374</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3316,17 +3253,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus10.fasta</t>
+          <t>label_Pelosinus6.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0004254975467627986</v>
+        <v>0.445556125033471</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9995745024532372</v>
+        <v>0.554443874966529</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9995745024532372</v>
+        <v>0.554443874966529</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3337,17 +3274,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas10.fasta</t>
+          <t>label_Pelosinus9.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.977598660837472e-06</v>
+        <v>0.001873783414249153</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9999900224013392</v>
+        <v>0.9981262165857508</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999900224013392</v>
+        <v>0.9981262165857508</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3358,17 +3295,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas12.fasta</t>
+          <t>label_Selenomonas10.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001060645344992062</v>
+        <v>9.292608578526096e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9989393546550079</v>
+        <v>0.9999070739142147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9989393546550079</v>
+        <v>0.9999070739142147</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3379,17 +3316,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas2.fasta</t>
+          <t>label_Selenomonas12.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0001351016754099765</v>
+        <v>0.005549528480499389</v>
       </c>
       <c r="C40" t="n">
-        <v>0.99986489832459</v>
+        <v>0.9944504715195006</v>
       </c>
       <c r="D40" t="n">
-        <v>0.99986489832459</v>
+        <v>0.9944504715195006</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3400,17 +3337,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas6.fasta</t>
+          <t>label_Veillonella31.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.638384686919458e-05</v>
+        <v>0.008580198326222144</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9999836161531308</v>
+        <v>0.9914198016737779</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999836161531308</v>
+        <v>0.9914198016737779</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3421,17 +3358,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella16.fasta</t>
+          <t>label_Dialister16.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001448831637501868</v>
+        <v>0.0006994419297854382</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9985511683624981</v>
+        <v>0.9993005580702146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9985511683624981</v>
+        <v>0.9993005580702146</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3442,17 +3379,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella23.fasta</t>
+          <t>label_Dialister23.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0003847902831648486</v>
+        <v>2.952743001560787e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9996152097168352</v>
+        <v>0.9999704725699844</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9996152097168352</v>
+        <v>0.9999704725699844</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3463,17 +3400,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella24.fasta</t>
+          <t>label_Dialister7.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001748121714050588</v>
+        <v>3.220354106825418e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9982518782859494</v>
+        <v>0.9999967796458932</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9982518782859494</v>
+        <v>0.9999967796458932</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3484,17 +3421,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella27.fasta</t>
+          <t>label_Megamonas5.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.003737126605083074</v>
+        <v>6.774580896262705e-13</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9962628733949169</v>
+        <v>0.9999999999993225</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9962628733949169</v>
+        <v>0.9999999999993225</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3505,17 +3442,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella4.fasta</t>
+          <t>label_Megasphaera21.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001750447828887003</v>
+        <v>2.223303903314822e-06</v>
       </c>
       <c r="C46" t="n">
-        <v>0.998249552171113</v>
+        <v>0.9999977766960967</v>
       </c>
       <c r="D46" t="n">
-        <v>0.998249552171113</v>
+        <v>0.9999977766960967</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3526,17 +3463,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella7.fasta</t>
+          <t>label_Megasphaera24.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02817813916534773</v>
+        <v>0.3956667664631858</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9718218608346523</v>
+        <v>0.6043332335368142</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9718218608346523</v>
+        <v>0.6043332335368142</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3547,17 +3484,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister18.fasta</t>
+          <t>label_Megasphaera29.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3334068678731408</v>
+        <v>0.0002394725619290217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6665931321268592</v>
+        <v>0.999760527438071</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6665931321268592</v>
+        <v>0.999760527438071</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3568,17 +3505,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister2.fasta</t>
+          <t>label_Megasphaera33.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.03419919925256598</v>
+        <v>8.00160657250526e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0.965800800747434</v>
+        <v>0.9999199839342749</v>
       </c>
       <c r="D49" t="n">
-        <v>0.965800800747434</v>
+        <v>0.9999199839342749</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3589,17 +3526,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister21.fasta</t>
+          <t>label_Megasphaera40.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0001654670581372475</v>
+        <v>0.000272173666562292</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9998345329418628</v>
+        <v>0.9997278263334377</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9998345329418628</v>
+        <v>0.9997278263334377</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3610,17 +3547,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister25.fasta</t>
+          <t>label_Pelosinus7.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01249999042617511</v>
+        <v>3.533080547990508e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9875000095738249</v>
+        <v>0.9999646691945201</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9875000095738249</v>
+        <v>0.9999646691945201</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3631,17 +3568,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister8.fasta</t>
+          <t>label_Selenomonas2.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1226018203767518</v>
+        <v>5.725866949690683e-06</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8773981796232482</v>
+        <v>0.9999942741330503</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8773981796232482</v>
+        <v>0.9999942741330503</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3652,17 +3589,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister9.fasta</t>
+          <t>label_Selenomonas6.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.003569123262207374</v>
+        <v>3.186325905346621e-07</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9964308767377926</v>
+        <v>0.9999996813674095</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9964308767377926</v>
+        <v>0.9999996813674095</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3673,17 +3610,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Megamonas1.fasta</t>
+          <t>label_Selenomonas9.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.028207794577356e-08</v>
+        <v>3.747200421400088e-06</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9999999497179221</v>
+        <v>0.9999962527995786</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999999497179221</v>
+        <v>0.9999962527995786</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3694,17 +3631,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera13.fasta</t>
+          <t>label_Veillonella33.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0001460260512540223</v>
+        <v>0.001540164584306947</v>
       </c>
       <c r="C55" t="n">
-        <v>0.999853973948746</v>
+        <v>0.9984598354156931</v>
       </c>
       <c r="D55" t="n">
-        <v>0.999853973948746</v>
+        <v>0.9984598354156931</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3715,17 +3652,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera24.fasta</t>
+          <t>label_Veillonella34.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2833789513582828</v>
+        <v>0.0001317181783977439</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7166210486417172</v>
+        <v>0.9998682818216023</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7166210486417172</v>
+        <v>0.9998682818216023</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3736,17 +3673,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera3.fasta</t>
+          <t>label_Veillonella8.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0004427840387576376</v>
+        <v>0.00070299187190348</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9995572159612424</v>
+        <v>0.9992970081280965</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9995572159612424</v>
+        <v>0.9992970081280965</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3757,17 +3694,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera36.fasta</t>
+          <t>label_Dialister1.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.36686906267947e-05</v>
+        <v>8.106633366844473e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9999363313093732</v>
+        <v>0.9999189336663316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999363313093732</v>
+        <v>0.9999189336663316</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3778,17 +3715,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera42.fasta</t>
+          <t>label_Dialister14.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.001601756601350313</v>
+        <v>4.578559753554146e-13</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9983982433986497</v>
+        <v>0.9999999999995421</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9983982433986497</v>
+        <v>0.9999999999995421</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3799,17 +3736,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus0.fasta</t>
+          <t>label_Dialister17.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1718119363905757</v>
+        <v>1.082357619974772e-06</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8281880636094243</v>
+        <v>0.99999891764238</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8281880636094243</v>
+        <v>0.99999891764238</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3820,17 +3757,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus3.fasta</t>
+          <t>label_Dialister8.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.001893484028223535</v>
+        <v>0.0004079252152856538</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9981065159717765</v>
+        <v>0.9995920747847143</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9981065159717765</v>
+        <v>0.9995920747847143</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3841,17 +3778,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus9.fasta</t>
+          <t>label_Dialister9.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.002620797573199329</v>
+        <v>1.187530666912906e-06</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9973792024268007</v>
+        <v>0.9999988124693331</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9973792024268007</v>
+        <v>0.9999988124693331</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3862,17 +3799,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas5.fasta</t>
+          <t>label_Megasphaera12.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1780853598254571</v>
+        <v>3.602451670303708e-12</v>
       </c>
       <c r="C63" t="n">
-        <v>0.821914640174543</v>
+        <v>0.9999999999963975</v>
       </c>
       <c r="D63" t="n">
-        <v>0.821914640174543</v>
+        <v>0.9999999999963975</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3883,17 +3820,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas9.fasta</t>
+          <t>label_Megasphaera14.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.764114608166395e-05</v>
+        <v>2.131628207280301e-12</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9999223588539183</v>
+        <v>0.9999999999978684</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999223588539183</v>
+        <v>0.9999999999978684</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3904,17 +3841,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella0.fasta</t>
+          <t>label_Megasphaera16.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.005246697777326448</v>
+        <v>2.354356709588501e-10</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9947533022226736</v>
+        <v>0.9999999997645643</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9947533022226736</v>
+        <v>0.9999999997645643</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3925,17 +3862,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella10.fasta</t>
+          <t>label_Megasphaera31.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01563843612218008</v>
+        <v>5.538942637883792e-10</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9843615638778199</v>
+        <v>0.9999999994461057</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9843615638778199</v>
+        <v>0.9999999994461057</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3946,17 +3883,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella12.fasta</t>
+          <t>label_Megasphaera37.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.004014783813474865</v>
+        <v>1.594771300572617e-07</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9959852161865251</v>
+        <v>0.9999998405228699</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9959852161865251</v>
+        <v>0.9999998405228699</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3967,17 +3904,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella13.fasta</t>
+          <t>label_Pelosinus2.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.002922430446074209</v>
+        <v>0.03632163168146441</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9970775695539258</v>
+        <v>0.9636783683185356</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9970775695539258</v>
+        <v>0.9636783683185356</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3988,17 +3925,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella25.fasta</t>
+          <t>label_Selenomonas1.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.005919500188572679</v>
+        <v>5.021800586479941e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9940804998114273</v>
+        <v>0.9999999497819941</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9940804998114273</v>
+        <v>0.9999999497819941</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4009,17 +3946,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella28.fasta</t>
+          <t>label_Veillonella16.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002449564882540001</v>
+        <v>1.548292838382537e-06</v>
       </c>
       <c r="C70" t="n">
-        <v>0.99755043511746</v>
+        <v>0.9999984517071616</v>
       </c>
       <c r="D70" t="n">
-        <v>0.99755043511746</v>
+        <v>0.9999984517071616</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4030,17 +3967,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella34.fasta</t>
+          <t>label_Veillonella27.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.002609792567811575</v>
+        <v>1.309375558089521e-06</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9973902074321884</v>
+        <v>0.9999986906244419</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9973902074321884</v>
+        <v>0.9999986906244419</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4051,17 +3988,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister0.fasta</t>
+          <t>label_Veillonella9.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.004968588196489487</v>
+        <v>5.454164474505419e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9950314118035105</v>
+        <v>0.9999994545835525</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9950314118035105</v>
+        <v>0.9999994545835525</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4072,17 +4009,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister10.fasta</t>
+          <t>label_Dialister11.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8.047069629024683e-05</v>
+        <v>0.004792062060224422</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9999195293037098</v>
+        <v>0.9952079379397756</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999195293037098</v>
+        <v>0.9952079379397756</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4093,17 +4030,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister12.fasta</t>
+          <t>label_Dialister13.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00240638004764604</v>
+        <v>0.03255191626172516</v>
       </c>
       <c r="C74" t="n">
-        <v>0.997593619952354</v>
+        <v>0.9674480837382748</v>
       </c>
       <c r="D74" t="n">
-        <v>0.997593619952354</v>
+        <v>0.9674480837382748</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4114,17 +4051,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister13.fasta</t>
+          <t>label_Dialister3.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.005568576301086092</v>
+        <v>0.08590485146052751</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9944314236989139</v>
+        <v>0.9140951485394725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9944314236989139</v>
+        <v>0.9140951485394725</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4135,17 +4072,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister19.fasta</t>
+          <t>label_Dialister4.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.008039900578432957</v>
+        <v>0.06641049406790289</v>
       </c>
       <c r="C76" t="n">
-        <v>0.991960099421567</v>
+        <v>0.9335895059320971</v>
       </c>
       <c r="D76" t="n">
-        <v>0.991960099421567</v>
+        <v>0.9335895059320971</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4156,17 +4093,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Dialister23.fasta</t>
+          <t>label_Megamonas0.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.127338467343808e-05</v>
+        <v>9.207523632426273e-11</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9999887266153266</v>
+        <v>0.9999999999079248</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999887266153266</v>
+        <v>0.9999999999079248</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4181,13 +4118,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.811053375381903e-06</v>
+        <v>1.463431820170058e-09</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9999941889466246</v>
+        <v>0.9999999985365682</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999941889466246</v>
+        <v>0.9999999985365682</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4198,17 +4135,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera11.fasta</t>
+          <t>label_Megasphaera18.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.470508307288565e-05</v>
+        <v>0.4251295782383729</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9999852949169271</v>
+        <v>0.5748704217616271</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999852949169271</v>
+        <v>0.5748704217616271</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4219,17 +4156,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera14.fasta</t>
+          <t>label_Megasphaera22.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.498014735734632e-05</v>
+        <v>0.004139189046384217</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9999850198526427</v>
+        <v>0.9958608109536158</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999850198526427</v>
+        <v>0.9958608109536158</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4240,17 +4177,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera19.fasta</t>
+          <t>label_Megasphaera25.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0001112519367898468</v>
+        <v>0.0008485848695375386</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9998887480632102</v>
+        <v>0.9991514151304625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9998887480632102</v>
+        <v>0.9991514151304625</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4261,17 +4198,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera26.fasta</t>
+          <t>label_Megasphaera27.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0001037449093947984</v>
+        <v>0.0006819674897943218</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9998962550906052</v>
+        <v>0.9993180325102057</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9998962550906052</v>
+        <v>0.9993180325102057</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4282,17 +4219,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera32.fasta</t>
+          <t>label_Megasphaera38.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0001505179613889851</v>
+        <v>0.03886935639588662</v>
       </c>
       <c r="C83" t="n">
-        <v>0.999849482038611</v>
+        <v>0.9611306436041134</v>
       </c>
       <c r="D83" t="n">
-        <v>0.999849482038611</v>
+        <v>0.9611306436041134</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4303,17 +4240,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera38.fasta</t>
+          <t>label_Megasphaera39.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.002721796679123201</v>
+        <v>0.1163540595645397</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9972782033208768</v>
+        <v>0.8836459404354603</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9972782033208768</v>
+        <v>0.8836459404354603</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4324,17 +4261,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera40.fasta</t>
+          <t>label_Megasphaera4.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0004220807185886244</v>
+        <v>0.1378137751441627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9995779192814114</v>
+        <v>0.8621862248558373</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9995779192814114</v>
+        <v>0.8621862248558373</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4345,17 +4282,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Megasphaera7.fasta</t>
+          <t>label_Megasphaera41.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.002306052305131479</v>
+        <v>0.00267932503045476</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9976939476948685</v>
+        <v>0.9973206749695452</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9976939476948685</v>
+        <v>0.9973206749695452</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4366,17 +4303,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus2.fasta</t>
+          <t>label_Veillonella12.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05729135463440693</v>
+        <v>0.004692478829456892</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9427086453655931</v>
+        <v>0.9953075211705431</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9427086453655931</v>
+        <v>0.9953075211705431</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4387,38 +4324,38 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Pelosinus6.fasta</t>
+          <t>label_Veillonella14.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9060464152021978</v>
+        <v>0.0075423946461457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09395358479780225</v>
+        <v>0.9924576053538543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9060464152021978</v>
+        <v>0.9924576053538543</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>f__Acidaminococcaceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Selenomonas1.fasta</t>
+          <t>label_Veillonella2.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.35906346635462e-06</v>
+        <v>0.02411632490916893</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9999936409365336</v>
+        <v>0.9758836750908311</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999936409365336</v>
+        <v>0.9758836750908311</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4429,17 +4366,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella1.fasta</t>
+          <t>label_Veillonella21.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.002995148028286376</v>
+        <v>0.002931287703388352</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9970048519717136</v>
+        <v>0.9970687122966116</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9970048519717136</v>
+        <v>0.9970687122966116</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4450,1426 +4387,19 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Veillonella14.fasta</t>
+          <t>label_Veillonella29.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001607725659784287</v>
+        <v>0.01294823533317557</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9983922743402157</v>
+        <v>0.9870517646668244</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9983922743402157</v>
+        <v>0.9870517646668244</v>
       </c>
       <c r="E91" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella15.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.001891593823961535</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.9981084061760385</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.9981084061760385</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella19.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.001012556918640772</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.9989874430813592</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.9989874430813592</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella2.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.00932045351294597</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.990679546487054</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.990679546487054</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella29.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.003246144194922085</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.9967538558050779</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.9967538558050779</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella5.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.000542231266669968</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.99945776873333</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.99945776873333</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella6.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.0156818304394073</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.9843181695605927</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.9843181695605927</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella8.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.003162454635575962</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.996837545364424</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.996837545364424</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister14.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2.294592509555216e-06</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9999977054074904</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9999977054074904</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister15.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.001436560438805246</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9985634395611948</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.9985634395611948</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister4.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.003607324683196245</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.9963926753168038</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9963926753168038</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister7.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>9.805997460365923e-06</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.9999901940025396</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9999901940025396</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_Megamonas2.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>4.729550084903167e-14</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9999999999999527</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.9999999999999527</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_Megamonas4.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>3.926925451480656e-11</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.9999999999607307</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.9999999999607307</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera1.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1.031898388614838e-05</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9999896810161139</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9999896810161139</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera12.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1.151976292135259e-07</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9999998848023708</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9999998848023708</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera17.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>3.558151961957634e-07</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9999996441848038</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9999996441848038</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera20.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>5.816844161898872e-08</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9999999418315584</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9999999418315584</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera21.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>9.947267132215387e-08</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9999999005273287</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9999999005273287</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera28.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.0005560574996247292</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9994439425003753</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9994439425003753</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera30.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>9.829096427882433e-07</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9999990170903572</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9999990170903572</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera33.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1.573950713096295e-07</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9999998426049287</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9999998426049287</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera34.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>7.328699513919901e-08</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9999999267130049</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9999999267130049</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera6.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1.762067808552814e-06</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9999982379321914</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9999982379321914</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera8.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>4.932813288471838e-05</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9999506718671153</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.9999506718671153</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_Pelosinus1.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.02867997641609232</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9713200235839077</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9713200235839077</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_Pelosinus4.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.002581641898069087</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9974183581019309</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9974183581019309</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_Selenomonas3.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.0001451633311275735</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9998548366688724</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.9998548366688724</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_Selenomonas4.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.001282317692801738</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9987176823071983</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.9987176823071983</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_Selenomonas8.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>4.300172398907787e-05</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9999569982760109</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.9999569982760109</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella11.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0005451834889403928</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9994548165110596</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.9994548165110596</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella17.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.0003192627759294187</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9996807372240706</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.9996807372240706</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella18.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0001569849451044103</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9998430150548956</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.9998430150548956</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella22.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.0004145089957889869</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.999585491004211</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.999585491004211</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella31.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.0006932114187609972</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.999306788581239</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.999306788581239</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella32.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.0006226547774655922</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9993773452225344</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.9993773452225344</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella9.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0005190098486524963</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9994809901513475</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.9994809901513475</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister1.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.01790769218115196</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.982092307818848</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.982092307818848</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister11.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.005647820126156278</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9943521798738437</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.9943521798738437</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister17.fasta</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.003554017005382382</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9964459829946176</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.9964459829946176</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister20.fasta</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0002739205745667661</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.9997260794254332</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.9997260794254332</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>label_Dialister6.fasta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.01011514808095881</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.9898848519190412</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.9898848519190412</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="11" t="inlineStr">
-        <is>
-          <t>label_Megamonas5.fasta</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1.391018939456146e-05</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.9999860898106054</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.9999860898106054</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera0.fasta</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0003374927622907808</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.9996625072377092</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.9996625072377092</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera10.fasta</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.0002148490282329885</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.999785150971767</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.999785150971767</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera15.fasta</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.0001706283768944106</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.9998293716231056</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.9998293716231056</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera16.fasta</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.0006347131172860232</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.999365286882714</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.999365286882714</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera2.fasta</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.000935614455407463</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.9990643855445925</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.9990643855445925</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera22.fasta</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.0004938703241699205</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.9995061296758301</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.9995061296758301</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera25.fasta</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.002507000561921435</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.9974929994380786</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.9974929994380786</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera27.fasta</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.001710045886680445</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.9982899541133196</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.9982899541133196</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera31.fasta</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.001180204980774202</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.9988197950192258</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.9988197950192258</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera35.fasta</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.0005101190787938359</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.9994898809212062</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.9994898809212062</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera4.fasta</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.009136349019127854</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.9908636509808721</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.9908636509808721</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera41.fasta</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.003835299920024182</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.9961647000799758</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.9961647000799758</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="11" t="inlineStr">
-        <is>
-          <t>label_Megasphaera5.fasta</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.0005060074284455318</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.9994939925715545</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.9994939925715545</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="11" t="inlineStr">
-        <is>
-          <t>label_Pelosinus5.fasta</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.01026625263117553</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.9897337473688245</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.9897337473688245</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="11" t="inlineStr">
-        <is>
-          <t>label_Pelosinus7.fasta</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.002066118960294072</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.9979338810397059</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.9979338810397059</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="11" t="inlineStr">
-        <is>
-          <t>label_Pelosinus8.fasta</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.001070084148085071</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.9989299158519149</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.9989299158519149</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="11" t="inlineStr">
-        <is>
-          <t>label_Selenomonas0.fasta</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.0003286464859870719</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.9996713535140129</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.9996713535140129</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="11" t="inlineStr">
-        <is>
-          <t>label_Selenomonas11.fasta</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.002439181677785562</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.9975608183222144</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.9975608183222144</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="11" t="inlineStr">
-        <is>
-          <t>label_Selenomonas7.fasta</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.0001772035699836305</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.9998227964300164</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.9998227964300164</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella20.fasta</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.000922074816650742</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.9990779251833493</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.9990779251833493</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella21.fasta</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.002240453848133317</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.9977595461518667</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.9977595461518667</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella26.fasta</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.001379868796353878</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.9986201312036461</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.9986201312036461</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella3.fasta</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.002950032472851749</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.9970499675271483</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.9970499675271483</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella30.fasta</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.001926587745853969</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.998073412254146</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.998073412254146</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="11" t="inlineStr">
-        <is>
-          <t>label_Veillonella33.fasta</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.002778693083644646</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.9972213069163554</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.9972213069163554</v>
-      </c>
-      <c r="E158" t="inlineStr">
         <is>
           <t>f__Veillonellaceae</t>
         </is>
